--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_raid0" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="188">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,54 @@
   </si>
   <si>
     <t>\r\n1</t>
+  </si>
+  <si>
+    <t>Id:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>PoolAvail:</t>
+  </si>
+  <si>
+    <t>UsedCapacity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeCapacity: </t>
+  </si>
+  <si>
+    <t>Usage:</t>
+  </si>
+  <si>
+    <t>RaidLevel:</t>
+  </si>
+  <si>
+    <t>ForceSync:</t>
+  </si>
+  <si>
+    <t>Stripe:</t>
+  </si>
+  <si>
+    <t>Sector:</t>
+  </si>
+  <si>
+    <t>OperationalStatus:</t>
+  </si>
+  <si>
+    <t>Owner:</t>
+  </si>
+  <si>
+    <t>PreferCtrlId:</t>
+  </si>
+  <si>
+    <t>Pds:</t>
+  </si>
+  <si>
+    <t>Axle:</t>
+  </si>
+  <si>
+    <t>PdGroup:</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,10 +1278,22 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1244,7 +1304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -1252,25 +1312,55 @@
         <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1278,25 +1368,55 @@
         <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -1304,22 +1424,52 @@
         <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1937,7 +2087,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_raid0" sheetId="7" r:id="rId1"/>
@@ -564,9 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a extend -i 0 -p 2,3,4,8,9,10,11,12,13,14,15</t>
-  </si>
-  <si>
     <t>pool -a extend -i 0 -p 2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,70 +584,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name: extend_raid5_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a extend -i 0 -p 4,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pds: 1,2,3,4,8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a extend -i 0 -p 8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: extend_raid6_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: extend_raid10_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: extend_raid50_pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a extend -s "axle=1" -i 0 -p 10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid50 pool by pds 10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid10 pool by pds 8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid6 pool by pds 8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid5 pool by pds 4,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a extend -s "axle=1" -i 0 -p 12,13,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid60 pool by pds 12,13,14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Pds: 1,2,3,4,8,9,10,11,12,13,14,15</t>
-  </si>
-  <si>
-    <t>Name: extend_raid5_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -i 0 -p 4,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pds: 1,2,3,4,8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -i 0 -p 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid6_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid10_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid50_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1" -i 0 -p 10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid50 pool by pds 10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid10 pool by pds 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid6 pool by pds 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid5 pool by pds 4,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid1 pool by pds 2,3,4,8,9,10,11,12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1" -i 0 -p 12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid60 pool by pds 12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pds: 1,2,3,4,8,9,10,11,12,13,14,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,6 +727,18 @@
   </si>
   <si>
     <t>PdGroup:</t>
+  </si>
+  <si>
+    <t>pool -a extend -i 0 -p 3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend raid1 pool by pds 3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pds: 1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1269,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1312,52 +1314,52 @@
         <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>174</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>177</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>179</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>180</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>182</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>183</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>184</v>
-      </c>
-      <c r="P2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1368,52 +1370,52 @@
         <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
         <v>172</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>175</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>176</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>177</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>178</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>179</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>180</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>181</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>183</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>184</v>
-      </c>
-      <c r="P3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1424,52 +1426,52 @@
         <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
         <v>172</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>173</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>174</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>175</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>176</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>177</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>178</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>179</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>180</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>181</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>182</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>183</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>184</v>
-      </c>
-      <c r="P4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1513,13 +1515,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>92</v>
@@ -1528,7 +1530,7 @@
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1550,16 +1552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="55.75" customWidth="1"/>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1580,22 +1582,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1647,13 +1649,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -1662,7 +1664,7 @@
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1714,22 +1716,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1781,22 +1783,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1848,22 +1850,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1913,30 +1915,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1979,22 +1981,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2156,10 +2158,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_raid0" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="modify_pool_name" sheetId="2" r:id="rId9"/>
     <sheet name="list_pool" sheetId="15" r:id="rId10"/>
     <sheet name="list_verbose_mode_pool" sheetId="16" r:id="rId11"/>
-    <sheet name="extend_raid0_pool" sheetId="17" r:id="rId12"/>
-    <sheet name="extend_raid1_pool" sheetId="18" r:id="rId13"/>
-    <sheet name="extend_raid5_pool" sheetId="19" r:id="rId14"/>
-    <sheet name="extend_raid6_pool" sheetId="20" r:id="rId15"/>
-    <sheet name="extend_raid10_pool" sheetId="21" r:id="rId16"/>
-    <sheet name="extend_raid50_pool" sheetId="22" r:id="rId17"/>
-    <sheet name="delete_pool" sheetId="24" r:id="rId18"/>
-    <sheet name="extend_raid60_pool" sheetId="23" r:id="rId19"/>
+    <sheet name="expand_raid0_pool" sheetId="17" r:id="rId12"/>
+    <sheet name="expand_raid1_pool" sheetId="18" r:id="rId13"/>
+    <sheet name="expand_raid5_pool" sheetId="19" r:id="rId14"/>
+    <sheet name="expand_raid6_pool" sheetId="20" r:id="rId15"/>
+    <sheet name="expand_raid10_pool" sheetId="21" r:id="rId16"/>
+    <sheet name="expand_raid50_pool" sheetId="22" r:id="rId17"/>
+    <sheet name="expand_raid60_pool" sheetId="23" r:id="rId18"/>
+    <sheet name="delete_pool" sheetId="24" r:id="rId19"/>
     <sheet name="invalid_settings_parameter" sheetId="4" r:id="rId20"/>
     <sheet name="invalid_option" sheetId="5" r:id="rId21"/>
     <sheet name="missing_parameter" sheetId="6" r:id="rId22"/>
@@ -289,26 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1" -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pool -a del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,14 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a extend 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing parameter</t>
   </si>
   <si>
@@ -564,90 +536,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a extend -i 0 -p 2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid0 pool by pds 2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pool -v -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name: extend_raid0_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid1_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid5_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -i 0 -p 4,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pds: 1,2,3,4,8,9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a extend -i 0 -p 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid6_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid10_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: extend_raid50_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1" -i 0 -p 10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid50 pool by pds 10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid10 pool by pds 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid6 pool by pds 8,9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid5 pool by pds 4,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a extend -s "axle=1" -i 0 -p 12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid60 pool by pds 12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pds: 1,2,3,4,8,9,10,11,12,13,14,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name: extend_raid60_pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pds: 1,2,3,4,8,9,10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,16 +629,89 @@
     <t>PdGroup:</t>
   </si>
   <si>
-    <t>pool -a extend -i 0 -p 3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extend raid1 pool by pds 3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pds: 1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -p 2,3</t>
+  </si>
+  <si>
+    <t>expand raid0 pool by pds 2,3</t>
+  </si>
+  <si>
+    <t>Name: expand_raid0_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -p 3,4</t>
+  </si>
+  <si>
+    <t>expand raid1 pool by pds 3,4</t>
+  </si>
+  <si>
+    <t>Name: expand_raid1_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -p 4,8,9</t>
+  </si>
+  <si>
+    <t>expand raid5 pool by pds 4,8,9</t>
+  </si>
+  <si>
+    <t>Name: expand_raid5_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -p 8,9,10,11</t>
+  </si>
+  <si>
+    <t>expand raid6 pool by pds 8,9,10,11</t>
+  </si>
+  <si>
+    <t>Name: expand_raid6_pool</t>
+  </si>
+  <si>
+    <t>expand raid10 pool by pds 8,9,10,11</t>
+  </si>
+  <si>
+    <t>Name: expand_raid10_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand -s "axle=1" -i 0 -p 10,11,12</t>
+  </si>
+  <si>
+    <t>expand raid50 pool by pds 10,11,12</t>
+  </si>
+  <si>
+    <t>Name: expand_raid50_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand -s "axle=1" -i 0 -p 12,13,14,15</t>
+  </si>
+  <si>
+    <t>expand raid60 pool by pds 12,13,14,15</t>
+  </si>
+  <si>
+    <t>Name: expand_raid60_pool</t>
+  </si>
+  <si>
+    <t>pool -a expand 1</t>
+  </si>
+  <si>
+    <t>pool -a expand test</t>
+  </si>
+  <si>
+    <t>pool -a expand</t>
+  </si>
+  <si>
+    <t>pool -a expand -s</t>
+  </si>
+  <si>
+    <t>pool -a expand -s "axle=1"</t>
+  </si>
+  <si>
+    <t>pool -a expand -s "axle=1" -p</t>
+  </si>
+  <si>
+    <t>pool -a expand -p</t>
   </si>
 </sst>
 </file>
@@ -1107,45 +1080,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1173,91 +1146,91 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1297,181 +1270,181 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="R4" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1459,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,36 +1474,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1552,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,36 +1541,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1635,36 +1608,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1702,36 +1675,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1769,36 +1742,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1836,36 +1809,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1885,74 +1858,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1967,36 +1876,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2011,6 +1920,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2036,45 +2009,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2062,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2158,10 +2131,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2294,7 +2267,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -2302,7 +2275,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -2380,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2404,7 +2377,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2412,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2420,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2428,7 +2401,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2436,7 +2409,7 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2444,7 +2417,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2452,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2460,7 +2433,7 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2468,7 +2441,7 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2476,63 +2449,63 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2564,27 +2537,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2602,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2635,27 +2608,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2664,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2673,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2706,36 +2679,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2744,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2777,27 +2750,27 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2806,7 +2779,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2815,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2851,27 +2824,27 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2880,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2889,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2925,48 +2898,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2995,50 +2968,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3046,16 +3019,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3063,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_raid0" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="189">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,6 +712,10 @@
   </si>
   <si>
     <t>pool -a expand -p</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2061,15 +2065,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.375" customWidth="1"/>
-    <col min="3" max="3" width="51.625" customWidth="1"/>
+    <col min="2" max="3" width="59.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2079,7 +2082,9 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2088,6 +2093,9 @@
       <c r="B2" t="s">
         <v>40</v>
       </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2096,6 +2104,9 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2104,6 +2115,9 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2112,6 +2126,9 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2120,6 +2137,9 @@
       <c r="B6" t="s">
         <v>40</v>
       </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2128,6 +2148,9 @@
       <c r="B7" t="s">
         <v>40</v>
       </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2136,6 +2159,9 @@
       <c r="B8" t="s">
         <v>137</v>
       </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2144,6 +2170,9 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2152,6 +2181,9 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -2160,6 +2192,9 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -2168,6 +2203,9 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -2176,6 +2214,9 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -2184,6 +2225,9 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2192,6 +2236,9 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2200,84 +2247,117 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>182</v>
       </c>
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2290,55 +2370,70 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2353,14 +2448,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2370,7 +2465,9 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2379,6 +2476,9 @@
       <c r="B2" t="s">
         <v>66</v>
       </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2387,6 +2487,9 @@
       <c r="B3" t="s">
         <v>66</v>
       </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2395,6 +2498,9 @@
       <c r="B4" t="s">
         <v>66</v>
       </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2403,6 +2509,9 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -2411,6 +2520,9 @@
       <c r="B6" t="s">
         <v>66</v>
       </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2419,6 +2531,9 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2427,6 +2542,9 @@
       <c r="B8" t="s">
         <v>66</v>
       </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2435,6 +2553,9 @@
       <c r="B9" t="s">
         <v>66</v>
       </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -2443,6 +2564,9 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -2451,6 +2575,9 @@
       <c r="B11" t="s">
         <v>66</v>
       </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -2459,6 +2586,9 @@
       <c r="B12" t="s">
         <v>66</v>
       </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -2467,6 +2597,9 @@
       <c r="B13" t="s">
         <v>66</v>
       </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -2475,6 +2608,9 @@
       <c r="B14" t="s">
         <v>66</v>
       </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -2483,6 +2619,9 @@
       <c r="B15" t="s">
         <v>66</v>
       </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -2491,20 +2630,29 @@
       <c r="B16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
     </row>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="192">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,6 +715,18 @@
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">different types of pd can not compose the one pool </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -p 6,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail to create Pool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2063,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,19 +2099,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -2110,7 +2122,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -2121,7 +2133,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -2132,7 +2144,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -2143,7 +2155,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -2154,51 +2166,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -2209,18 +2221,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -2231,7 +2243,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -2242,7 +2254,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -2253,7 +2265,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -2264,7 +2276,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -2275,7 +2287,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -2286,7 +2298,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -2297,7 +2309,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -2308,7 +2320,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2319,7 +2331,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -2330,7 +2342,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -2341,7 +2353,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -2352,12 +2364,23 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>182</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
       </c>
     </row>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -726,7 +726,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail to create Pool</t>
+    <t>Invalid physical drive type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,38 +4,39 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835"/>
   </bookViews>
   <sheets>
-    <sheet name="add_pool_raid0" sheetId="7" r:id="rId1"/>
-    <sheet name="add_pool_raid1" sheetId="8" r:id="rId2"/>
-    <sheet name="add_pool_raid5" sheetId="9" r:id="rId3"/>
-    <sheet name="add_pool_raid6" sheetId="10" r:id="rId4"/>
-    <sheet name="add_pool_raid10" sheetId="11" r:id="rId5"/>
-    <sheet name="add_pool_raid50" sheetId="12" r:id="rId6"/>
-    <sheet name="add_pool_raid60" sheetId="13" r:id="rId7"/>
-    <sheet name="add_pool_default_setting" sheetId="14" r:id="rId8"/>
-    <sheet name="modify_pool_name" sheetId="2" r:id="rId9"/>
-    <sheet name="list_pool" sheetId="15" r:id="rId10"/>
-    <sheet name="list_verbose_mode_pool" sheetId="16" r:id="rId11"/>
-    <sheet name="expand_raid0_pool" sheetId="17" r:id="rId12"/>
-    <sheet name="expand_raid1_pool" sheetId="18" r:id="rId13"/>
-    <sheet name="expand_raid5_pool" sheetId="19" r:id="rId14"/>
-    <sheet name="expand_raid6_pool" sheetId="20" r:id="rId15"/>
-    <sheet name="expand_raid10_pool" sheetId="21" r:id="rId16"/>
-    <sheet name="expand_raid50_pool" sheetId="22" r:id="rId17"/>
-    <sheet name="expand_raid60_pool" sheetId="23" r:id="rId18"/>
-    <sheet name="delete_pool" sheetId="24" r:id="rId19"/>
-    <sheet name="invalid_settings_parameter" sheetId="4" r:id="rId20"/>
-    <sheet name="invalid_option" sheetId="5" r:id="rId21"/>
-    <sheet name="missing_parameter" sheetId="6" r:id="rId22"/>
+    <sheet name="add_pool_by_external_drive" sheetId="25" r:id="rId1"/>
+    <sheet name="add_pool_raid0" sheetId="7" r:id="rId2"/>
+    <sheet name="add_pool_raid1" sheetId="8" r:id="rId3"/>
+    <sheet name="add_pool_raid5" sheetId="9" r:id="rId4"/>
+    <sheet name="add_pool_raid6" sheetId="10" r:id="rId5"/>
+    <sheet name="add_pool_raid10" sheetId="11" r:id="rId6"/>
+    <sheet name="add_pool_raid50" sheetId="12" r:id="rId7"/>
+    <sheet name="add_pool_raid60" sheetId="13" r:id="rId8"/>
+    <sheet name="add_pool_default_setting" sheetId="14" r:id="rId9"/>
+    <sheet name="modify_pool_name" sheetId="2" r:id="rId10"/>
+    <sheet name="list_pool" sheetId="15" r:id="rId11"/>
+    <sheet name="list_verbose_mode_pool" sheetId="16" r:id="rId12"/>
+    <sheet name="expand_raid0_pool" sheetId="17" r:id="rId13"/>
+    <sheet name="expand_raid1_pool" sheetId="18" r:id="rId14"/>
+    <sheet name="expand_raid5_pool" sheetId="19" r:id="rId15"/>
+    <sheet name="expand_raid6_pool" sheetId="20" r:id="rId16"/>
+    <sheet name="expand_raid10_pool" sheetId="21" r:id="rId17"/>
+    <sheet name="expand_raid50_pool" sheetId="22" r:id="rId18"/>
+    <sheet name="expand_raid60_pool" sheetId="23" r:id="rId19"/>
+    <sheet name="delete_pool" sheetId="24" r:id="rId20"/>
+    <sheet name="invalid_settings_parameter" sheetId="4" r:id="rId21"/>
+    <sheet name="invalid_option" sheetId="5" r:id="rId22"/>
+    <sheet name="missing_parameter" sheetId="6" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="210">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,10 +335,6 @@
     <t>Pds: 1</t>
   </si>
   <si>
-    <t>pool -a add -s "name=a,raid=0,stripe=64KB,sector=512B,ctrlid=1" -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add pool by "name=a,raid=0,stripe=64KB,sector=512B,ctrlid=1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,6 +724,77 @@
   </si>
   <si>
     <t>Invalid physical drive type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t pd -s "name=a,raid=0,stripe=64KB,sector=512B,ctrlid=1" -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t pd -s "name=test_type,raid=5,stripe=256KB,sector=2KB,ctrlid=1" -p 8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_type,raid=5,stripe=256KB,sector=2KB,ctrlid=1" -p 8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -v -i 1</t>
+  </si>
+  <si>
+    <t>pool -v -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pds: 8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s "name=test_ed0,ctrlid=1" -p 6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s "name=test_ed1,ctrlid=2" -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed0,ctrlid=1" -p 6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed1,ctrlid=2" -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed2" -p 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -v -i 2</t>
+  </si>
+  <si>
+    <t>Name: test_ed0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_ed1</t>
+  </si>
+  <si>
+    <t>Name: test_ed2</t>
+  </si>
+  <si>
+    <t>PreferCtrlId: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreferCtrlId: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s "name=test_ed2" -p 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,25 +1144,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="71.25" customWidth="1"/>
-    <col min="2" max="2" width="62.75" customWidth="1"/>
+    <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1108,33 +1176,55 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1145,6 +1235,112 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="62.875" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1173,80 +1369,80 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>127</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>127</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>128</v>
-      </c>
-      <c r="H4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -1297,58 +1493,58 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>145</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>147</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>148</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>149</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>150</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>151</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>152</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>153</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>154</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>155</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>156</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1356,111 +1552,111 @@
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
         <v>144</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>146</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>147</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>148</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>149</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>150</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>151</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>152</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>153</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>154</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>155</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>156</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>145</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>146</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>147</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>148</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>149</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>150</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>151</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>152</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>153</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>154</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>155</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>156</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>158</v>
-      </c>
-      <c r="R4" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1504,22 +1700,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1537,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1571,22 +1767,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1604,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1638,22 +1834,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1671,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1705,22 +1901,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1738,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1772,22 +1968,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1805,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1839,22 +2035,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1872,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1906,22 +2102,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1939,7 +2135,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="62.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1971,30 +2237,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2269,619 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="59.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="3" width="49.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2039,31 +2917,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2073,629 +2951,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="59.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="3" width="49.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="104.875" customWidth="1"/>
+    <col min="1" max="1" width="111.125" customWidth="1"/>
     <col min="2" max="2" width="91.375" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="41.625" bestFit="1" customWidth="1"/>
@@ -2722,10 +2988,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2746,7 +3012,36 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +3051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2793,10 +3088,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2808,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2817,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2864,10 +3159,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2876,10 +3171,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2888,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +3193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2935,10 +3230,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2950,7 +3245,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2959,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3009,10 +3304,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -3024,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -3033,10 +3328,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
         <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3083,16 +3378,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3107,116 +3402,10 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="62.875" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_by_external_drive" sheetId="25" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="212">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,26 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a add -t ed -s "name=test_ed0,ctrlid=1" -p 6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a add -t ed -s "name=test_ed1,ctrlid=2" -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add pool by "name=test_ed0,ctrlid=1" -p 6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add pool by "name=test_ed1,ctrlid=2" -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add pool by "name=test_ed2" -p 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pool -v -i 2</t>
   </si>
   <si>
@@ -794,7 +774,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pool -a add -t ed -s "name=test_ed2" -p 9</t>
+    <t>pool -a add -t ed -s "name=test_ed0,ctrlid=1" -p 1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s "name=test_ed1,ctrlid=2" -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s "name=test_ed2" -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed0,ctrlid=1" -p 1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed1,ctrlid=2" -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add pool by "name=test_ed2" -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand raid0 pool by eds 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -t ed -p 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,16 +1186,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
@@ -1195,36 +1203,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
         <v>209</v>
       </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
       <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1671,12 +1679,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
@@ -1719,8 +1727,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>

--- a/data/pool.xlsx
+++ b/data/pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="835"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="835" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="add_pool_by_external_drive" sheetId="25" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="218">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,11 +798,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expand raid0 pool by eds 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a expand -i 0 -t ed -p 5</t>
+    <t>expand raid0 pool by eds 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -t ed -p 1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand raid5 pool by eds 1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a expand -i 0 -t ed -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -s "name=test_ed,raid=0" -t ed -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a add -t ed -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdList: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edlist: 1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1703,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1728,13 +1752,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1750,15 +1777,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
@@ -1803,10 +1830,6 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1820,12 +1843,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
@@ -1868,8 +1891,18 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
@@ -2289,7 +2322,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2604,15 +2637,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2668,6 +2701,17 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2680,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2749,7 +2793,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -2760,7 +2804,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2771,7 +2815,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -2782,7 +2826,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -2793,7 +2837,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -2804,7 +2848,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -2815,7 +2859,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -2826,7 +2870,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -2837,7 +2881,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -2848,7 +2892,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -2859,7 +2903,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -2870,7 +2914,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -2881,12 +2925,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
       </c>
     </row>
